--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\пары7_8семы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testingBSU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -172,7 +172,7 @@
   </si>
   <si>
     <t>Строка с выбранным сотрудником удалится
-из списка</t>
+из списка и Индетификатор изменится</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>V1.0</t>
   </si>
@@ -174,12 +174,21 @@
     <t>Строка с выбранным сотрудником удалится
 из списка и Индетификатор изменится</t>
   </si>
+  <si>
+    <t>ожения для просмотра списка сотрудников</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Issue 66</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +247,25 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +296,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -421,10 +459,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,9 +499,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,8 +533,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -836,10 +879,10 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -857,7 +900,9 @@
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -881,34 +926,34 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -955,33 +1000,35 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" spans="1:16" ht="171.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -997,10 +1044,10 @@
       <c r="A6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -1009,7 +1056,9 @@
       <c r="E6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -1025,19 +1074,21 @@
       <c r="A7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -1053,19 +1104,21 @@
       <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -1081,17 +1134,19 @@
       <c r="A9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -1105,8 +1160,8 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="14"/>
@@ -1122,7 +1177,7 @@
       <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1140,7 +1195,7 @@
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1158,7 +1213,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1176,7 +1231,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1194,7 +1249,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1212,7 +1267,7 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1230,7 +1285,7 @@
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1248,7 +1303,7 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1266,7 +1321,7 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1284,7 +1339,7 @@
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1302,7 +1357,7 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1320,7 +1375,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1339,7 +1394,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1357,7 +1412,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1375,7 +1430,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1393,7 +1448,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1411,7 +1466,7 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1429,7 +1484,7 @@
       <c r="O29"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1447,7 +1502,7 @@
       <c r="O30"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1465,7 +1520,7 @@
       <c r="O31"/>
       <c r="P31"/>
     </row>
-    <row r="32" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1483,7 +1538,7 @@
       <c r="O32"/>
       <c r="P32"/>
     </row>
-    <row r="33" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -1501,7 +1556,7 @@
       <c r="O33"/>
       <c r="P33"/>
     </row>
-    <row r="34" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -1519,7 +1574,7 @@
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -1537,7 +1592,7 @@
       <c r="O35"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -1556,7 +1611,7 @@
       <c r="P36"/>
     </row>
     <row r="37" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1574,7 +1629,7 @@
       <c r="O38"/>
       <c r="P38"/>
     </row>
-    <row r="39" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -1592,7 +1647,7 @@
       <c r="O39"/>
       <c r="P39"/>
     </row>
-    <row r="40" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -1610,7 +1665,7 @@
       <c r="O40"/>
       <c r="P40"/>
     </row>
-    <row r="41" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -1628,7 +1683,7 @@
       <c r="O41"/>
       <c r="P41"/>
     </row>
-    <row r="42" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -1646,7 +1701,7 @@
       <c r="O42"/>
       <c r="P42"/>
     </row>
-    <row r="43" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -1664,7 +1719,7 @@
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -1682,7 +1737,7 @@
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -1700,7 +1755,7 @@
       <c r="O45"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -1718,7 +1773,7 @@
       <c r="O46"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -1736,7 +1791,7 @@
       <c r="O47"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -1754,7 +1809,7 @@
       <c r="O48"/>
       <c r="P48"/>
     </row>
-    <row r="49" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -1773,7 +1828,7 @@
       <c r="P49"/>
     </row>
     <row r="50" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:16" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -1808,7 +1863,10 @@
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>